--- a/Capstone Status.xlsx
+++ b/Capstone Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6090B5AE-DDF3-4A03-AD47-66F349193077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB29F3-02B5-44BD-9D36-9D6A60629BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{08A1AF13-0A0E-4D99-AF9F-48CB37564179}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Model No</t>
   </si>
@@ -49,10 +49,61 @@
     <t>Detailed Status</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Accuracy/IOU Score</t>
+  </si>
+  <si>
+    <t>MaskRCNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Base: ResNet
+ObjectDet : Retina Net(One Shot)</t>
+  </si>
+  <si>
+    <t>Baseline Model</t>
+  </si>
+  <si>
+    <t>Accuracy :0.38
+IoU: .89</t>
+  </si>
+  <si>
+    <t>Completed but poor scores</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Poornima</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>IoU:.75
+Accuracy ?:Cannot read</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>YOLOV4</t>
+  </si>
+  <si>
+    <t>YOLOV3</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Sachen</t>
   </si>
 </sst>
 </file>
@@ -88,8 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,7 +170,7 @@
     <tableColumn id="3" xr3:uid="{7F997AE3-FE4E-4AEE-9304-02A7B2095D53}" name="Accuracy/IOU Score"/>
     <tableColumn id="4" xr3:uid="{9E31B627-1D2C-4453-B9C7-BBC90961114E}" name="One Line Status"/>
     <tableColumn id="5" xr3:uid="{F4B09069-E923-4582-9986-4B08A597C3B5}" name="Detailed Status"/>
-    <tableColumn id="6" xr3:uid="{063DF5AF-EF7E-46E5-BAFA-75E36E17E718}" name="Comments"/>
+    <tableColumn id="6" xr3:uid="{063DF5AF-EF7E-46E5-BAFA-75E36E17E718}" name="Owner"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80878782-0E7F-4108-B10C-2A0C9E013CBE}">
-  <dimension ref="F7:K7"/>
+  <dimension ref="F7:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,9 +484,9 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
@@ -443,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
@@ -452,7 +506,97 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15">
         <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Capstone Status.xlsx
+++ b/Capstone Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB29F3-02B5-44BD-9D36-9D6A60629BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEB50D-244E-44F1-AC89-97380CEF0EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{08A1AF13-0A0E-4D99-AF9F-48CB37564179}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Model No</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>MaskRCNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not completed </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -72,9 +69,6 @@
 IoU: .89</t>
   </si>
   <si>
-    <t>Completed but poor scores</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -87,23 +81,35 @@
     <t>Radhika</t>
   </si>
   <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>YOLOV4</t>
+  </si>
+  <si>
+    <t>YOLOV3</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Sachen</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work in Progress </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
     <t>IoU:.75
-Accuracy ?:Cannot read</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>YOLOV4</t>
-  </si>
-  <si>
-    <t>YOLOV3</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Sachen</t>
+Accuracy ?</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
@@ -517,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="6:11" ht="60" x14ac:dyDescent="0.25">
@@ -531,13 +537,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="6:11" ht="30" x14ac:dyDescent="0.25">
@@ -545,16 +551,16 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="6:11" ht="30" x14ac:dyDescent="0.25">
@@ -562,16 +568,16 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
@@ -579,24 +585,30 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
